--- a/predictions/Прогнозы_ProphetAdd.xlsx
+++ b/predictions/Прогнозы_ProphetAdd.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22084590.92606493</v>
+        <v>25354152.69430289</v>
       </c>
       <c r="C2" t="n">
-        <v>25673917.89330258</v>
+        <v>23270914.62370265</v>
       </c>
       <c r="D2" t="n">
-        <v>25020408.83745754</v>
+        <v>23203041.57124627</v>
       </c>
       <c r="E2" t="n">
-        <v>24766590.63822976</v>
+        <v>24188370.48141899</v>
       </c>
       <c r="F2" t="n">
-        <v>25586321.33046743</v>
+        <v>22661610.50151432</v>
       </c>
       <c r="G2" t="n">
-        <v>23951073.76408146</v>
+        <v>21902944.34985523</v>
       </c>
       <c r="H2" t="n">
-        <v>23200887.19111215</v>
+        <v>22605546.27754228</v>
       </c>
       <c r="I2" t="n">
-        <v>24063719.02505096</v>
+        <v>23287103.43064759</v>
       </c>
       <c r="J2" t="n">
-        <v>25004455.01596781</v>
+        <v>23822972.13981952</v>
       </c>
       <c r="K2" t="n">
-        <v>25893952.63356834</v>
+        <v>24840965.31052286</v>
       </c>
       <c r="L2" t="n">
-        <v>27327400.61612906</v>
+        <v>26050310.38623656</v>
       </c>
       <c r="M2" t="n">
-        <v>28926402.33640763</v>
+        <v>21870879.59994434</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7428167.475206473</v>
+        <v>9646894.610027527</v>
       </c>
       <c r="C3" t="n">
-        <v>8257821.812508957</v>
+        <v>10475983.25285889</v>
       </c>
       <c r="D3" t="n">
-        <v>9879875.260686571</v>
+        <v>11005718.81923009</v>
       </c>
       <c r="E3" t="n">
-        <v>10284886.13234368</v>
+        <v>9711067.556630775</v>
       </c>
       <c r="F3" t="n">
-        <v>8931901.576086421</v>
+        <v>10206734.88713113</v>
       </c>
       <c r="G3" t="n">
-        <v>9412126.695337115</v>
+        <v>10891264.98809178</v>
       </c>
       <c r="H3" t="n">
-        <v>10116402.81223159</v>
+        <v>10963835.16528553</v>
       </c>
       <c r="I3" t="n">
-        <v>10227263.60530366</v>
+        <v>11193422.08263801</v>
       </c>
       <c r="J3" t="n">
-        <v>10544043.03524247</v>
+        <v>12237869.94054701</v>
       </c>
       <c r="K3" t="n">
-        <v>11658716.80822405</v>
+        <v>12020487.60111227</v>
       </c>
       <c r="L3" t="n">
-        <v>11492324.12399624</v>
+        <v>13216156.9861179</v>
       </c>
       <c r="M3" t="n">
-        <v>12705852.20737456</v>
+        <v>13246368.41233138</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6121317.820462256</v>
+        <v>14215307.92374968</v>
       </c>
       <c r="C4" t="n">
-        <v>8315805.263977927</v>
+        <v>20497238.82697714</v>
       </c>
       <c r="D4" t="n">
-        <v>8590386.279936071</v>
+        <v>16921836.59068277</v>
       </c>
       <c r="E4" t="n">
-        <v>7861293.880530584</v>
+        <v>14881405.36934767</v>
       </c>
       <c r="F4" t="n">
-        <v>7619203.984742327</v>
+        <v>14781641.17465968</v>
       </c>
       <c r="G4" t="n">
-        <v>8152027.049408899</v>
+        <v>16499058.06130115</v>
       </c>
       <c r="H4" t="n">
-        <v>9019352.979466051</v>
+        <v>18459029.59759215</v>
       </c>
       <c r="I4" t="n">
-        <v>9412405.834918398</v>
+        <v>23106362.15909442</v>
       </c>
       <c r="J4" t="n">
-        <v>12705430.25272522</v>
+        <v>25136988.50891132</v>
       </c>
       <c r="K4" t="n">
-        <v>12071333.72779092</v>
+        <v>28047036.2352208</v>
       </c>
       <c r="L4" t="n">
-        <v>13094116.53225491</v>
+        <v>25373945.64523676</v>
       </c>
       <c r="M4" t="n">
-        <v>11131010.21958467</v>
+        <v>19757082.12032346</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2881526.283526859</v>
+        <v>29213781.50492795</v>
       </c>
       <c r="C5" t="n">
-        <v>4715384.31053133</v>
+        <v>32112900.85407384</v>
       </c>
       <c r="D5" t="n">
-        <v>5255658.405024718</v>
+        <v>28767846.46836895</v>
       </c>
       <c r="E5" t="n">
-        <v>4223937.486524541</v>
+        <v>28310284.97588868</v>
       </c>
       <c r="F5" t="n">
-        <v>3999282.409426624</v>
+        <v>30255946.68581422</v>
       </c>
       <c r="G5" t="n">
-        <v>4490374.925679499</v>
+        <v>32882489.14380072</v>
       </c>
       <c r="H5" t="n">
-        <v>5677371.283454741</v>
+        <v>34329572.84772155</v>
       </c>
       <c r="I5" t="n">
-        <v>6712273.556105072</v>
+        <v>36453325.43337878</v>
       </c>
       <c r="J5" t="n">
-        <v>7099636.526287153</v>
+        <v>36104677.90303962</v>
       </c>
       <c r="K5" t="n">
-        <v>8288635.314141206</v>
+        <v>37718435.46903574</v>
       </c>
       <c r="L5" t="n">
-        <v>8553822.301860398</v>
+        <v>41992095.48946951</v>
       </c>
       <c r="M5" t="n">
-        <v>6557862.84813996</v>
+        <v>32864811.4371276</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6709743.444538708</v>
+        <v>2792846.600032274</v>
       </c>
       <c r="C6" t="n">
-        <v>11096636.83933845</v>
+        <v>4353475.827593218</v>
       </c>
       <c r="D6" t="n">
-        <v>11566289.88331194</v>
+        <v>4199612.181520999</v>
       </c>
       <c r="E6" t="n">
-        <v>10250452.83444392</v>
+        <v>2481453.569518046</v>
       </c>
       <c r="F6" t="n">
-        <v>9947521.942010669</v>
+        <v>3426409.398538426</v>
       </c>
       <c r="G6" t="n">
-        <v>10227091.09191396</v>
+        <v>3462038.793985912</v>
       </c>
       <c r="H6" t="n">
-        <v>11343977.38643556</v>
+        <v>2501850.583246189</v>
       </c>
       <c r="I6" t="n">
-        <v>11598560.02851346</v>
+        <v>3768889.720141781</v>
       </c>
       <c r="J6" t="n">
-        <v>12126138.04002504</v>
+        <v>1417566.669809772</v>
       </c>
       <c r="K6" t="n">
-        <v>13924448.85450628</v>
+        <v>2889380.940888959</v>
       </c>
       <c r="L6" t="n">
-        <v>13491643.609625</v>
+        <v>1595055.214768612</v>
       </c>
       <c r="M6" t="n">
-        <v>16203462.85901494</v>
+        <v>1784264.177254731</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1746043.752239469</v>
+        <v>8473147.038588392</v>
       </c>
       <c r="C7" t="n">
-        <v>4023722.452552547</v>
+        <v>11785798.79525914</v>
       </c>
       <c r="D7" t="n">
-        <v>3581629.642566078</v>
+        <v>10446156.12849512</v>
       </c>
       <c r="E7" t="n">
-        <v>3879705.281048055</v>
+        <v>8456402.565327205</v>
       </c>
       <c r="F7" t="n">
-        <v>3006462.466453275</v>
+        <v>9325270.165518982</v>
       </c>
       <c r="G7" t="n">
-        <v>2837630.979389638</v>
+        <v>9245674.046771897</v>
       </c>
       <c r="H7" t="n">
-        <v>2784794.785335323</v>
+        <v>9771903.679990111</v>
       </c>
       <c r="I7" t="n">
-        <v>3065277.812136867</v>
+        <v>9816983.532199411</v>
       </c>
       <c r="J7" t="n">
-        <v>3882024.302831252</v>
+        <v>11008236.1881803</v>
       </c>
       <c r="K7" t="n">
-        <v>2778610.709692988</v>
+        <v>10240292.87587677</v>
       </c>
       <c r="L7" t="n">
-        <v>3294466.851714528</v>
+        <v>9548424.167676838</v>
       </c>
       <c r="M7" t="n">
-        <v>5404686.028727398</v>
+        <v>9259913.845603295</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1294212.507218986</v>
+        <v>19530267.4528636</v>
       </c>
       <c r="C8" t="n">
-        <v>1568633.550691307</v>
+        <v>20921456.20750241</v>
       </c>
       <c r="D8" t="n">
-        <v>1769338.784418482</v>
+        <v>20402341.10893868</v>
       </c>
       <c r="E8" t="n">
-        <v>1530946.827514697</v>
+        <v>18227190.8689342</v>
       </c>
       <c r="F8" t="n">
-        <v>1348160.90063177</v>
+        <v>20752135.9819159</v>
       </c>
       <c r="G8" t="n">
-        <v>1529892.21409265</v>
+        <v>19889253.67333386</v>
       </c>
       <c r="H8" t="n">
-        <v>1847190.97060264</v>
+        <v>15784756.70111159</v>
       </c>
       <c r="I8" t="n">
-        <v>1848391.0357181</v>
+        <v>19626191.57545251</v>
       </c>
       <c r="J8" t="n">
-        <v>1952487.801175649</v>
+        <v>18037910.93473162</v>
       </c>
       <c r="K8" t="n">
-        <v>1877919.687972778</v>
+        <v>20722912.03636149</v>
       </c>
       <c r="L8" t="n">
-        <v>2899570.262797046</v>
+        <v>26396126.28024811</v>
       </c>
       <c r="M8" t="n">
-        <v>1871996.199985814</v>
+        <v>14403431.91127498</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3178928.959663907</v>
+        <v>24921272.45641232</v>
       </c>
       <c r="C9" t="n">
-        <v>3785013.262439147</v>
+        <v>27340319.90402043</v>
       </c>
       <c r="D9" t="n">
-        <v>5154415.260235861</v>
+        <v>30929856.01967811</v>
       </c>
       <c r="E9" t="n">
-        <v>5072685.82759748</v>
+        <v>30884193.24020235</v>
       </c>
       <c r="F9" t="n">
-        <v>4861527.466664298</v>
+        <v>35598361.9361036</v>
       </c>
       <c r="G9" t="n">
-        <v>5378025.332203663</v>
+        <v>31903094.97357584</v>
       </c>
       <c r="H9" t="n">
-        <v>5553718.851826648</v>
+        <v>33351840.57788157</v>
       </c>
       <c r="I9" t="n">
-        <v>6023144.296386532</v>
+        <v>34152055.93146763</v>
       </c>
       <c r="J9" t="n">
-        <v>6604008.866557343</v>
+        <v>32381641.5602484</v>
       </c>
       <c r="K9" t="n">
-        <v>6377226.788834194</v>
+        <v>32456941.72104051</v>
       </c>
       <c r="L9" t="n">
-        <v>6704518.833552917</v>
+        <v>39742990.00580003</v>
       </c>
       <c r="M9" t="n">
-        <v>6203140.081630585</v>
+        <v>33278965.84614071</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4021403.84739012</v>
+        <v>14687513.51351376</v>
       </c>
       <c r="C10" t="n">
-        <v>5822139.891196614</v>
+        <v>16080071.34652487</v>
       </c>
       <c r="D10" t="n">
-        <v>9971934.869960602</v>
+        <v>15369793.01356161</v>
       </c>
       <c r="E10" t="n">
-        <v>6635400.790479365</v>
+        <v>15031325.27629345</v>
       </c>
       <c r="F10" t="n">
-        <v>6714763.749895051</v>
+        <v>16160655.81859887</v>
       </c>
       <c r="G10" t="n">
-        <v>7249351.851332559</v>
+        <v>15294938.18887821</v>
       </c>
       <c r="H10" t="n">
-        <v>7742546.033912091</v>
+        <v>16480821.20331173</v>
       </c>
       <c r="I10" t="n">
-        <v>8537786.569129741</v>
+        <v>18077586.56610504</v>
       </c>
       <c r="J10" t="n">
-        <v>9243965.083926102</v>
+        <v>18131573.58167301</v>
       </c>
       <c r="K10" t="n">
-        <v>9035315.267957881</v>
+        <v>17048645.85582574</v>
       </c>
       <c r="L10" t="n">
-        <v>9597254.092235655</v>
+        <v>16079385.81196514</v>
       </c>
       <c r="M10" t="n">
-        <v>10462989.3591495</v>
+        <v>15744217.34479783</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3605195.174758126</v>
+        <v>19938233.17592829</v>
       </c>
       <c r="C11" t="n">
-        <v>3429012.503495513</v>
+        <v>20501491.77858603</v>
       </c>
       <c r="D11" t="n">
-        <v>4413827.855699796</v>
+        <v>20999856.16604635</v>
       </c>
       <c r="E11" t="n">
-        <v>4735191.07837295</v>
+        <v>21995582.76585116</v>
       </c>
       <c r="F11" t="n">
-        <v>2918779.332485452</v>
+        <v>21988153.91310553</v>
       </c>
       <c r="G11" t="n">
-        <v>4162974.719756865</v>
+        <v>23420978.08579478</v>
       </c>
       <c r="H11" t="n">
-        <v>4043593.623291919</v>
+        <v>24803592.25580055</v>
       </c>
       <c r="I11" t="n">
-        <v>3231970.539193457</v>
+        <v>26386768.35876671</v>
       </c>
       <c r="J11" t="n">
-        <v>4467960.527398664</v>
+        <v>26990441.03174245</v>
       </c>
       <c r="K11" t="n">
-        <v>2458100.061107374</v>
+        <v>28006665.25390185</v>
       </c>
       <c r="L11" t="n">
-        <v>4197690.677211699</v>
+        <v>27614459.81805675</v>
       </c>
       <c r="M11" t="n">
-        <v>2991439.820525751</v>
+        <v>28586643.59918483</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1489136.388471499</v>
+        <v>37801569.18588021</v>
       </c>
       <c r="C12" t="n">
-        <v>-279843.0358496345</v>
+        <v>43563517.36781259</v>
       </c>
       <c r="D12" t="n">
-        <v>189441.8929064296</v>
+        <v>36147744.48483089</v>
       </c>
       <c r="E12" t="n">
-        <v>-283455.2938404273</v>
+        <v>33371792.6436871</v>
       </c>
       <c r="F12" t="n">
-        <v>-203466.5054364172</v>
+        <v>41657475.02161177</v>
       </c>
       <c r="G12" t="n">
-        <v>-510957.802665967</v>
+        <v>50092587.76635906</v>
       </c>
       <c r="H12" t="n">
-        <v>-367536.5896635783</v>
+        <v>44227128.55207529</v>
       </c>
       <c r="I12" t="n">
-        <v>-518419.5224264056</v>
+        <v>48251609.23540539</v>
       </c>
       <c r="J12" t="n">
-        <v>-493051.5024293415</v>
+        <v>46563510.43429238</v>
       </c>
       <c r="K12" t="n">
-        <v>-827847.571713589</v>
+        <v>45023859.35823398</v>
       </c>
       <c r="L12" t="n">
-        <v>-1082369.302723165</v>
+        <v>43086758.97045238</v>
       </c>
       <c r="M12" t="n">
-        <v>-1152161.427002719</v>
+        <v>40886886.65615695</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1280423.128216847</v>
+        <v>33144730.05693652</v>
       </c>
       <c r="C13" t="n">
-        <v>1467782.784795263</v>
+        <v>36836801.6466341</v>
       </c>
       <c r="D13" t="n">
-        <v>1779849.042210942</v>
+        <v>35185097.64134769</v>
       </c>
       <c r="E13" t="n">
-        <v>1716759.704244304</v>
+        <v>29688469.81702349</v>
       </c>
       <c r="F13" t="n">
-        <v>1435235.782769927</v>
+        <v>37616657.96518102</v>
       </c>
       <c r="G13" t="n">
-        <v>1680476.709848123</v>
+        <v>44831274.89363287</v>
       </c>
       <c r="H13" t="n">
-        <v>1785610.833952555</v>
+        <v>44107923.42526525</v>
       </c>
       <c r="I13" t="n">
-        <v>1981028.772360488</v>
+        <v>40636223.74407784</v>
       </c>
       <c r="J13" t="n">
-        <v>2023932.97361386</v>
+        <v>49323569.65196805</v>
       </c>
       <c r="K13" t="n">
-        <v>2150389.483074119</v>
+        <v>37778694.50457884</v>
       </c>
       <c r="L13" t="n">
-        <v>2090209.996353725</v>
+        <v>35475103.55133998</v>
       </c>
       <c r="M13" t="n">
-        <v>2041630.669991651</v>
+        <v>34871177.35058208</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>105631.4439303459</v>
+        <v>960060.5536286812</v>
       </c>
       <c r="C14" t="n">
-        <v>-269748.5456849776</v>
+        <v>837967.102240068</v>
       </c>
       <c r="D14" t="n">
-        <v>1446029.794027534</v>
+        <v>860611.0302391441</v>
       </c>
       <c r="E14" t="n">
-        <v>553918.5234608287</v>
+        <v>930723.1384247914</v>
       </c>
       <c r="F14" t="n">
-        <v>143416.846946729</v>
+        <v>883046.9615694118</v>
       </c>
       <c r="G14" t="n">
-        <v>469013.631821443</v>
+        <v>728352.8559297604</v>
       </c>
       <c r="H14" t="n">
-        <v>92150.40949233505</v>
+        <v>1016620.814442869</v>
       </c>
       <c r="I14" t="n">
-        <v>464341.1759730935</v>
+        <v>1021895.727879737</v>
       </c>
       <c r="J14" t="n">
-        <v>115624.4963561685</v>
+        <v>1091665.628681421</v>
       </c>
       <c r="K14" t="n">
-        <v>824850.4381789602</v>
+        <v>990333.0163130467</v>
       </c>
       <c r="L14" t="n">
-        <v>-363029.3186357081</v>
+        <v>779918.5121773583</v>
       </c>
       <c r="M14" t="n">
-        <v>-280206.4368691737</v>
+        <v>991505.1436213386</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1082530.839855511</v>
+        <v>3917350.408702999</v>
       </c>
       <c r="C15" t="n">
-        <v>979310.2849590839</v>
+        <v>4925925.921782199</v>
       </c>
       <c r="D15" t="n">
-        <v>1161999.123726026</v>
+        <v>5497829.168838248</v>
       </c>
       <c r="E15" t="n">
-        <v>1136575.97799411</v>
+        <v>5065283.350232</v>
       </c>
       <c r="F15" t="n">
-        <v>1192678.357831141</v>
+        <v>4655565.864007873</v>
       </c>
       <c r="G15" t="n">
-        <v>1141486.951304508</v>
+        <v>5007970.928963372</v>
       </c>
       <c r="H15" t="n">
-        <v>1273090.207908399</v>
+        <v>5497864.393294399</v>
       </c>
       <c r="I15" t="n">
-        <v>1209849.351734725</v>
+        <v>5245034.026415292</v>
       </c>
       <c r="J15" t="n">
-        <v>1302412.964555455</v>
+        <v>5453992.735239571</v>
       </c>
       <c r="K15" t="n">
-        <v>1437863.417166518</v>
+        <v>5907514.708241098</v>
       </c>
       <c r="L15" t="n">
-        <v>1525735.710800039</v>
+        <v>5485872.701556194</v>
       </c>
       <c r="M15" t="n">
-        <v>1391803.584269457</v>
+        <v>6026261.129867393</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>864441.7929634685</v>
+        <v>12329445.11861237</v>
       </c>
       <c r="C16" t="n">
-        <v>1180317.564140178</v>
+        <v>13089893.60110024</v>
       </c>
       <c r="D16" t="n">
-        <v>1206047.8734635</v>
+        <v>12118420.32300645</v>
       </c>
       <c r="E16" t="n">
-        <v>1118557.334429102</v>
+        <v>12137402.12936853</v>
       </c>
       <c r="F16" t="n">
-        <v>1019938.854392257</v>
+        <v>12666370.996382</v>
       </c>
       <c r="G16" t="n">
-        <v>1075645.356457013</v>
+        <v>12471272.59541145</v>
       </c>
       <c r="H16" t="n">
-        <v>1130838.878745839</v>
+        <v>12651469.26783845</v>
       </c>
       <c r="I16" t="n">
-        <v>1177013.777016327</v>
+        <v>14388815.26163336</v>
       </c>
       <c r="J16" t="n">
-        <v>1292232.275588422</v>
+        <v>14070591.32296628</v>
       </c>
       <c r="K16" t="n">
-        <v>1241264.026556197</v>
+        <v>14855749.81211179</v>
       </c>
       <c r="L16" t="n">
-        <v>1322604.6711775</v>
+        <v>14784697.53613087</v>
       </c>
       <c r="M16" t="n">
-        <v>1336844.552697729</v>
+        <v>14899432.76831259</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3907231.072915854</v>
+        <v>6775472.668392383</v>
       </c>
       <c r="C17" t="n">
-        <v>4782659.016122715</v>
+        <v>6244244.136373927</v>
       </c>
       <c r="D17" t="n">
-        <v>5483493.785464164</v>
+        <v>5914603.370038607</v>
       </c>
       <c r="E17" t="n">
-        <v>5465364.893480742</v>
+        <v>6207752.932072491</v>
       </c>
       <c r="F17" t="n">
-        <v>4428010.506899079</v>
+        <v>6985090.100314508</v>
       </c>
       <c r="G17" t="n">
-        <v>4878734.549466355</v>
+        <v>6665496.029333076</v>
       </c>
       <c r="H17" t="n">
-        <v>4938495.528687486</v>
+        <v>6523350.034288516</v>
       </c>
       <c r="I17" t="n">
-        <v>4865759.310390016</v>
+        <v>7718925.447112473</v>
       </c>
       <c r="J17" t="n">
-        <v>4927214.389823468</v>
+        <v>7344245.521976016</v>
       </c>
       <c r="K17" t="n">
-        <v>5060487.075117637</v>
+        <v>7913892.678811856</v>
       </c>
       <c r="L17" t="n">
-        <v>5234707.594239455</v>
+        <v>7231165.423480663</v>
       </c>
       <c r="M17" t="n">
-        <v>4536905.911140368</v>
+        <v>7359599.513160169</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>408065.8956410205</v>
+        <v>2646978.989146325</v>
       </c>
       <c r="C18" t="n">
-        <v>729653.6236989105</v>
+        <v>3723807.328206118</v>
       </c>
       <c r="D18" t="n">
-        <v>861671.4204629093</v>
+        <v>2699796.620220079</v>
       </c>
       <c r="E18" t="n">
-        <v>881163.4581336123</v>
+        <v>3562688.704834276</v>
       </c>
       <c r="F18" t="n">
-        <v>708282.148332528</v>
+        <v>4827031.752628266</v>
       </c>
       <c r="G18" t="n">
-        <v>1139708.837961933</v>
+        <v>3108402.012453367</v>
       </c>
       <c r="H18" t="n">
-        <v>582377.1266288277</v>
+        <v>4114951.11962027</v>
       </c>
       <c r="I18" t="n">
-        <v>334952.65051671</v>
+        <v>4163041.989634611</v>
       </c>
       <c r="J18" t="n">
-        <v>693002.2229615916</v>
+        <v>3449195.995372275</v>
       </c>
       <c r="K18" t="n">
-        <v>331063.5715425418</v>
+        <v>3024621.858861374</v>
       </c>
       <c r="L18" t="n">
-        <v>968698.3258796475</v>
+        <v>4283649.96505646</v>
       </c>
       <c r="M18" t="n">
-        <v>2908393.045428591</v>
+        <v>3390862.264412583</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-169870.85125285</v>
+        <v>5470985.344120639</v>
       </c>
       <c r="C19" t="n">
-        <v>-36771.00919854939</v>
+        <v>6707677.365692191</v>
       </c>
       <c r="D19" t="n">
-        <v>114107.939080573</v>
+        <v>4283613.017675173</v>
       </c>
       <c r="E19" t="n">
-        <v>-104186.3357974003</v>
+        <v>3792604.595448694</v>
       </c>
       <c r="F19" t="n">
-        <v>-10833.13289844882</v>
+        <v>6622857.077361864</v>
       </c>
       <c r="G19" t="n">
-        <v>-202705.1735261435</v>
+        <v>5757002.734617851</v>
       </c>
       <c r="H19" t="n">
-        <v>-140788.7941817934</v>
+        <v>6887308.278270989</v>
       </c>
       <c r="I19" t="n">
-        <v>-243121.5061646092</v>
+        <v>5081927.765128023</v>
       </c>
       <c r="J19" t="n">
-        <v>404364.3444859515</v>
+        <v>7338753.477688251</v>
       </c>
       <c r="K19" t="n">
-        <v>-203358.0961688859</v>
+        <v>5900141.786394942</v>
       </c>
       <c r="L19" t="n">
-        <v>-304545.9057941286</v>
+        <v>8336951.914272593</v>
       </c>
       <c r="M19" t="n">
-        <v>-71785.31663956163</v>
+        <v>3424831.677591246</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1286406.650882713</v>
+        <v>2850701.94493659</v>
       </c>
       <c r="C20" t="n">
-        <v>2393876.445245708</v>
+        <v>2297072.970825583</v>
       </c>
       <c r="D20" t="n">
-        <v>2310239.82232763</v>
+        <v>2564042.941350692</v>
       </c>
       <c r="E20" t="n">
-        <v>2606662.79260244</v>
+        <v>2780149.134050857</v>
       </c>
       <c r="F20" t="n">
-        <v>1796727.277780107</v>
+        <v>4063660.24136373</v>
       </c>
       <c r="G20" t="n">
-        <v>2343885.072019035</v>
+        <v>2824183.968061049</v>
       </c>
       <c r="H20" t="n">
-        <v>2340010.854736563</v>
+        <v>1915604.177611757</v>
       </c>
       <c r="I20" t="n">
-        <v>2264010.462811499</v>
+        <v>2702610.550207919</v>
       </c>
       <c r="J20" t="n">
-        <v>1944669.56715851</v>
+        <v>3090686.615158095</v>
       </c>
       <c r="K20" t="n">
-        <v>2590338.482403847</v>
+        <v>3515311.437749477</v>
       </c>
       <c r="L20" t="n">
-        <v>2341397.03078491</v>
+        <v>2706671.466063795</v>
       </c>
       <c r="M20" t="n">
-        <v>3360175.182178529</v>
+        <v>2403344.792446586</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>834679.5617256558</v>
+        <v>2450006.976764776</v>
       </c>
       <c r="C21" t="n">
-        <v>1725059.84486099</v>
+        <v>3090255.724982115</v>
       </c>
       <c r="D21" t="n">
-        <v>1465216.85050516</v>
+        <v>2927721.532445904</v>
       </c>
       <c r="E21" t="n">
-        <v>1831014.090506946</v>
+        <v>4023444.609495135</v>
       </c>
       <c r="F21" t="n">
-        <v>936351.3584679236</v>
+        <v>3547483.074264817</v>
       </c>
       <c r="G21" t="n">
-        <v>1479195.214941777</v>
+        <v>2434649.471873738</v>
       </c>
       <c r="H21" t="n">
-        <v>1625229.34049451</v>
+        <v>2813354.337853621</v>
       </c>
       <c r="I21" t="n">
-        <v>784397.6185659213</v>
+        <v>2829721.575940168</v>
       </c>
       <c r="J21" t="n">
-        <v>1116925.210231532</v>
+        <v>4691686.427184161</v>
       </c>
       <c r="K21" t="n">
-        <v>1773842.979259355</v>
+        <v>3311049.393644056</v>
       </c>
       <c r="L21" t="n">
-        <v>997823.4981016624</v>
+        <v>3687752.373088404</v>
       </c>
       <c r="M21" t="n">
-        <v>1205293.60994395</v>
+        <v>3263473.3044467</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1178419.779712411</v>
+        <v>13653517.04823416</v>
       </c>
       <c r="C22" t="n">
-        <v>789467.4758010694</v>
+        <v>12872120.41545401</v>
       </c>
       <c r="D22" t="n">
-        <v>1077627.271134891</v>
+        <v>13575050.5944714</v>
       </c>
       <c r="E22" t="n">
-        <v>1128970.915272565</v>
+        <v>12216969.64343515</v>
       </c>
       <c r="F22" t="n">
-        <v>1035680.86472852</v>
+        <v>13119753.58293373</v>
       </c>
       <c r="G22" t="n">
-        <v>914520.7010961964</v>
+        <v>13565985.16375472</v>
       </c>
       <c r="H22" t="n">
-        <v>700993.3956717791</v>
+        <v>13137118.76840857</v>
       </c>
       <c r="I22" t="n">
-        <v>513865.4373069467</v>
+        <v>13427769.79475071</v>
       </c>
       <c r="J22" t="n">
-        <v>303356.0683559973</v>
+        <v>16560541.31500783</v>
       </c>
       <c r="K22" t="n">
-        <v>235177.7178499992</v>
+        <v>14803391.3717509</v>
       </c>
       <c r="L22" t="n">
-        <v>1183012.169049729</v>
+        <v>16248471.61350731</v>
       </c>
       <c r="M22" t="n">
-        <v>1735631.583132236</v>
+        <v>12873932.32621656</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>38633.44988298787</v>
+        <v>1656735.505136941</v>
       </c>
       <c r="C23" t="n">
-        <v>78485.73984431021</v>
+        <v>4630949.419956314</v>
       </c>
       <c r="D23" t="n">
-        <v>28191.26571593816</v>
+        <v>4616754.06929436</v>
       </c>
       <c r="E23" t="n">
-        <v>18986.87232748389</v>
+        <v>2685333.404171228</v>
       </c>
       <c r="F23" t="n">
-        <v>42709.67443055262</v>
+        <v>5006722.020735604</v>
       </c>
       <c r="G23" t="n">
-        <v>25385.2184899183</v>
+        <v>4648239.73669894</v>
       </c>
       <c r="H23" t="n">
-        <v>19033.57745622726</v>
+        <v>17252017.8427189</v>
       </c>
       <c r="I23" t="n">
-        <v>6304.104446832953</v>
+        <v>10761918.86184823</v>
       </c>
       <c r="J23" t="n">
-        <v>-9714.742523647299</v>
+        <v>3612199.598715425</v>
       </c>
       <c r="K23" t="n">
-        <v>-24113.48679992073</v>
+        <v>3653103.290515843</v>
       </c>
       <c r="L23" t="n">
-        <v>-29252.77566250055</v>
+        <v>6197551.579208876</v>
       </c>
       <c r="M23" t="n">
-        <v>313980.9191640467</v>
+        <v>2498881.74526109</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8454196.4066197</v>
+        <v>11763626.23155673</v>
       </c>
       <c r="C24" t="n">
-        <v>10886901.36963562</v>
+        <v>11942926.4248845</v>
       </c>
       <c r="D24" t="n">
-        <v>12810978.37344633</v>
+        <v>12205003.41959012</v>
       </c>
       <c r="E24" t="n">
-        <v>11272854.63009188</v>
+        <v>10144316.98112809</v>
       </c>
       <c r="F24" t="n">
-        <v>11366117.38280777</v>
+        <v>10921611.47460463</v>
       </c>
       <c r="G24" t="n">
-        <v>11086274.09431874</v>
+        <v>10641248.33090016</v>
       </c>
       <c r="H24" t="n">
-        <v>12232717.3134996</v>
+        <v>10307769.25976285</v>
       </c>
       <c r="I24" t="n">
-        <v>9552323.63208588</v>
+        <v>13063555.059813</v>
       </c>
       <c r="J24" t="n">
-        <v>12063665.45936789</v>
+        <v>12276647.76283362</v>
       </c>
       <c r="K24" t="n">
-        <v>10380742.39303852</v>
+        <v>10769577.55559832</v>
       </c>
       <c r="L24" t="n">
-        <v>11171742.0251831</v>
+        <v>15835230.65597408</v>
       </c>
       <c r="M24" t="n">
-        <v>14119965.55014173</v>
+        <v>11256562.33237277</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1075211.969409134</v>
+        <v>4524040.860390213</v>
       </c>
       <c r="C25" t="n">
-        <v>3083487.621686746</v>
+        <v>6463244.165630609</v>
       </c>
       <c r="D25" t="n">
-        <v>2563542.114340311</v>
+        <v>4859185.924012894</v>
       </c>
       <c r="E25" t="n">
-        <v>2889197.53252766</v>
+        <v>3531185.442320755</v>
       </c>
       <c r="F25" t="n">
-        <v>2391509.337338547</v>
+        <v>4336169.297901737</v>
       </c>
       <c r="G25" t="n">
-        <v>4017327.231826129</v>
+        <v>5854255.341245433</v>
       </c>
       <c r="H25" t="n">
-        <v>2755328.298604055</v>
+        <v>4104998.984619447</v>
       </c>
       <c r="I25" t="n">
-        <v>2871995.199767948</v>
+        <v>7274461.084303947</v>
       </c>
       <c r="J25" t="n">
-        <v>2684224.148576787</v>
+        <v>6294212.170102313</v>
       </c>
       <c r="K25" t="n">
-        <v>3375224.318437974</v>
+        <v>5130001.263503932</v>
       </c>
       <c r="L25" t="n">
-        <v>3346379.362257835</v>
+        <v>5852567.45154654</v>
       </c>
       <c r="M25" t="n">
-        <v>3277999.717734521</v>
+        <v>4360555.556838734</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10315197.89528568</v>
+        <v>11813927.7025183</v>
       </c>
       <c r="C26" t="n">
-        <v>10447818.21009691</v>
+        <v>13067602.42968056</v>
       </c>
       <c r="D26" t="n">
-        <v>12178399.69083937</v>
+        <v>11031653.05012359</v>
       </c>
       <c r="E26" t="n">
-        <v>14549399.98106325</v>
+        <v>10753592.69299185</v>
       </c>
       <c r="F26" t="n">
-        <v>14285333.29930992</v>
+        <v>11895621.38024474</v>
       </c>
       <c r="G26" t="n">
-        <v>16284399.82202529</v>
+        <v>13141227.64612375</v>
       </c>
       <c r="H26" t="n">
-        <v>13606283.01940628</v>
+        <v>14861210.33420648</v>
       </c>
       <c r="I26" t="n">
-        <v>14530997.6281254</v>
+        <v>13610535.05184587</v>
       </c>
       <c r="J26" t="n">
-        <v>13654085.07043525</v>
+        <v>13134475.11326111</v>
       </c>
       <c r="K26" t="n">
-        <v>14060467.38575305</v>
+        <v>11181293.8411526</v>
       </c>
       <c r="L26" t="n">
-        <v>13001324.46803619</v>
+        <v>15348520.3347696</v>
       </c>
       <c r="M26" t="n">
-        <v>15016483.65679392</v>
+        <v>13240187.26436838</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>14592639.47049066</v>
+        <v>6002637.031196279</v>
       </c>
       <c r="C27" t="n">
-        <v>15187002.82090618</v>
+        <v>5734103.929708856</v>
       </c>
       <c r="D27" t="n">
-        <v>16250031.13789663</v>
+        <v>5517153.034967259</v>
       </c>
       <c r="E27" t="n">
-        <v>18208674.515458</v>
+        <v>4130411.93962842</v>
       </c>
       <c r="F27" t="n">
-        <v>16050597.92743514</v>
+        <v>4991503.160916825</v>
       </c>
       <c r="G27" t="n">
-        <v>17360106.58651363</v>
+        <v>6631255.381676452</v>
       </c>
       <c r="H27" t="n">
-        <v>18889110.52224081</v>
+        <v>5720542.373378059</v>
       </c>
       <c r="I27" t="n">
-        <v>19231852.02792845</v>
+        <v>4872545.916976484</v>
       </c>
       <c r="J27" t="n">
-        <v>21462535.45278221</v>
+        <v>5814664.11339635</v>
       </c>
       <c r="K27" t="n">
-        <v>19054616.74274736</v>
+        <v>4736986.018038617</v>
       </c>
       <c r="L27" t="n">
-        <v>20459672.28613531</v>
+        <v>6161990.659790173</v>
       </c>
       <c r="M27" t="n">
-        <v>25725654.16448287</v>
+        <v>5422683.439894022</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11820266.48936513</v>
+        <v>13924433.15274955</v>
       </c>
       <c r="C28" t="n">
-        <v>13122791.05838577</v>
+        <v>10932253.15795873</v>
       </c>
       <c r="D28" t="n">
-        <v>15244935.05754853</v>
+        <v>13821922.38683654</v>
       </c>
       <c r="E28" t="n">
-        <v>14436326.83834113</v>
+        <v>11002689.95115054</v>
       </c>
       <c r="F28" t="n">
-        <v>14071248.11243032</v>
+        <v>13923372.80765622</v>
       </c>
       <c r="G28" t="n">
-        <v>15227846.2404471</v>
+        <v>18796094.81389567</v>
       </c>
       <c r="H28" t="n">
-        <v>14371562.88812202</v>
+        <v>12997721.95802439</v>
       </c>
       <c r="I28" t="n">
-        <v>15597363.61103122</v>
+        <v>10850697.56695511</v>
       </c>
       <c r="J28" t="n">
-        <v>17282934.80791517</v>
+        <v>10044158.07309496</v>
       </c>
       <c r="K28" t="n">
-        <v>17369781.16160467</v>
+        <v>13912031.79916531</v>
       </c>
       <c r="L28" t="n">
-        <v>16281183.27542352</v>
+        <v>19117955.20708027</v>
       </c>
       <c r="M28" t="n">
-        <v>15278662.40329425</v>
+        <v>11916745.28016716</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>17967898.796941</v>
+        <v>2631089.994115639</v>
       </c>
       <c r="C29" t="n">
-        <v>19730232.98870351</v>
+        <v>2714796.187680568</v>
       </c>
       <c r="D29" t="n">
-        <v>20555939.38109813</v>
+        <v>2699277.06221644</v>
       </c>
       <c r="E29" t="n">
-        <v>20990518.91858521</v>
+        <v>2669826.341479782</v>
       </c>
       <c r="F29" t="n">
-        <v>21940197.60845014</v>
+        <v>2702994.345751417</v>
       </c>
       <c r="G29" t="n">
-        <v>21931851.20173959</v>
+        <v>2642158.788157175</v>
       </c>
       <c r="H29" t="n">
-        <v>23359594.89977339</v>
+        <v>2819719.141809056</v>
       </c>
       <c r="I29" t="n">
-        <v>24766207.45635501</v>
+        <v>2800471.12372846</v>
       </c>
       <c r="J29" t="n">
-        <v>26387559.74295617</v>
+        <v>2706305.267406789</v>
       </c>
       <c r="K29" t="n">
-        <v>27031634.47266643</v>
+        <v>2737769.901297248</v>
       </c>
       <c r="L29" t="n">
-        <v>28052367.94528177</v>
+        <v>2873215.054744591</v>
       </c>
       <c r="M29" t="n">
-        <v>27490318.55923615</v>
+        <v>2907727.931486777</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>38247778.3673232</v>
+        <v>883243.1384855914</v>
       </c>
       <c r="C30" t="n">
-        <v>36804523.87227786</v>
+        <v>804847.5306950979</v>
       </c>
       <c r="D30" t="n">
-        <v>43826062.4736988</v>
+        <v>891711.4728199447</v>
       </c>
       <c r="E30" t="n">
-        <v>36107514.65430622</v>
+        <v>865592.5562627473</v>
       </c>
       <c r="F30" t="n">
-        <v>33108018.10333201</v>
+        <v>838402.7411336716</v>
       </c>
       <c r="G30" t="n">
-        <v>41255640.46447913</v>
+        <v>830112.1164558621</v>
       </c>
       <c r="H30" t="n">
-        <v>49669539.75924468</v>
+        <v>846445.8667798096</v>
       </c>
       <c r="I30" t="n">
-        <v>43896056.39515834</v>
+        <v>846936.6850853583</v>
       </c>
       <c r="J30" t="n">
-        <v>48099855.21122468</v>
+        <v>903469.8559351555</v>
       </c>
       <c r="K30" t="n">
-        <v>46635067.76848283</v>
+        <v>911110.6414305423</v>
       </c>
       <c r="L30" t="n">
-        <v>45316647.28725757</v>
+        <v>1090220.875071552</v>
       </c>
       <c r="M30" t="n">
-        <v>43534505.43018248</v>
+        <v>985360.8627472451</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31357800.92250478</v>
+        <v>864509.0428527104</v>
       </c>
       <c r="C31" t="n">
-        <v>34336237.98486291</v>
+        <v>1249052.031097693</v>
       </c>
       <c r="D31" t="n">
-        <v>37578410.28321324</v>
+        <v>1084573.648398667</v>
       </c>
       <c r="E31" t="n">
-        <v>35960880.87610427</v>
+        <v>921404.5238941668</v>
       </c>
       <c r="F31" t="n">
-        <v>30453493.77203794</v>
+        <v>628312.1343716284</v>
       </c>
       <c r="G31" t="n">
-        <v>38353243.75633496</v>
+        <v>733296.6018745708</v>
       </c>
       <c r="H31" t="n">
-        <v>45540151.404764</v>
+        <v>694422.4065235334</v>
       </c>
       <c r="I31" t="n">
-        <v>44804071.64490242</v>
+        <v>908569.3826080213</v>
       </c>
       <c r="J31" t="n">
-        <v>41294358.20409637</v>
+        <v>1188457.691957785</v>
       </c>
       <c r="K31" t="n">
-        <v>49984053.34109814</v>
+        <v>1388435.643071344</v>
       </c>
       <c r="L31" t="n">
-        <v>38454950.96918119</v>
+        <v>1439168.535752046</v>
       </c>
       <c r="M31" t="n">
-        <v>36186367.90322115</v>
+        <v>641159.7735461267</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>648444.6555757315</v>
+        <v>2110881.621445711</v>
       </c>
       <c r="C32" t="n">
-        <v>829565.4935583378</v>
+        <v>2123196.215099081</v>
       </c>
       <c r="D32" t="n">
-        <v>846785.3548852069</v>
+        <v>2212998.516760643</v>
       </c>
       <c r="E32" t="n">
-        <v>836872.4428399719</v>
+        <v>2219629.956743625</v>
       </c>
       <c r="F32" t="n">
-        <v>883394.0203224379</v>
+        <v>2331178.583517651</v>
       </c>
       <c r="G32" t="n">
-        <v>823505.0638799672</v>
+        <v>2163415.206578764</v>
       </c>
       <c r="H32" t="n">
-        <v>669545.7794663879</v>
+        <v>2120342.2249249</v>
       </c>
       <c r="I32" t="n">
-        <v>963963.1243296729</v>
+        <v>2339713.218145706</v>
       </c>
       <c r="J32" t="n">
-        <v>988540.2966858374</v>
+        <v>2323481.061220072</v>
       </c>
       <c r="K32" t="n">
-        <v>1080537.925997733</v>
+        <v>2395240.341401425</v>
       </c>
       <c r="L32" t="n">
-        <v>1002717.901611368</v>
+        <v>2346179.22835674</v>
       </c>
       <c r="M32" t="n">
-        <v>809737.8074773537</v>
+        <v>2221495.662434923</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4048594.972116909</v>
+        <v>2898087.40564592</v>
       </c>
       <c r="C33" t="n">
-        <v>3648405.983956312</v>
+        <v>3158391.985958619</v>
       </c>
       <c r="D33" t="n">
-        <v>4815976.219635048</v>
+        <v>2978725.183441249</v>
       </c>
       <c r="E33" t="n">
-        <v>5362285.931139916</v>
+        <v>3153330.835816736</v>
       </c>
       <c r="F33" t="n">
-        <v>4919798.777190457</v>
+        <v>3496526.223521505</v>
       </c>
       <c r="G33" t="n">
-        <v>4502811.562156175</v>
+        <v>3621907.468567494</v>
       </c>
       <c r="H33" t="n">
-        <v>4863563.916908538</v>
+        <v>3669100.264755713</v>
       </c>
       <c r="I33" t="n">
-        <v>5358290.222048579</v>
+        <v>3362124.468913272</v>
       </c>
       <c r="J33" t="n">
-        <v>5123637.558730146</v>
+        <v>3740269.230420337</v>
       </c>
       <c r="K33" t="n">
-        <v>5347826.796506752</v>
+        <v>3688743.501272182</v>
       </c>
       <c r="L33" t="n">
-        <v>5811032.559450815</v>
+        <v>3576297.574830194</v>
       </c>
       <c r="M33" t="n">
-        <v>5392862.290517997</v>
+        <v>3576823.359371091</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>13545582.67236374</v>
+        <v>2280063.985234752</v>
       </c>
       <c r="C34" t="n">
-        <v>12271672.07450106</v>
+        <v>2845949.255970419</v>
       </c>
       <c r="D34" t="n">
-        <v>14014108.12413932</v>
+        <v>2652564.048883279</v>
       </c>
       <c r="E34" t="n">
-        <v>12728385.73970227</v>
+        <v>2584839.561621523</v>
       </c>
       <c r="F34" t="n">
-        <v>12497003.92591889</v>
+        <v>2907165.404283452</v>
       </c>
       <c r="G34" t="n">
-        <v>12850600.80222587</v>
+        <v>3184279.975191956</v>
       </c>
       <c r="H34" t="n">
-        <v>12603101.82062886</v>
+        <v>3964015.185525266</v>
       </c>
       <c r="I34" t="n">
-        <v>12878401.07780416</v>
+        <v>2548421.512135905</v>
       </c>
       <c r="J34" t="n">
-        <v>14775061.23402638</v>
+        <v>3936769.782874042</v>
       </c>
       <c r="K34" t="n">
-        <v>14697537.15151254</v>
+        <v>2823218.494473832</v>
       </c>
       <c r="L34" t="n">
-        <v>15739479.14707951</v>
+        <v>3289989.060734333</v>
       </c>
       <c r="M34" t="n">
-        <v>15870011.70810366</v>
+        <v>2857598.217139771</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5852609.394964282</v>
+        <v>2224907.740871638</v>
       </c>
       <c r="C35" t="n">
-        <v>6381167.217331718</v>
+        <v>2213825.863346217</v>
       </c>
       <c r="D35" t="n">
-        <v>6431029.760850026</v>
+        <v>2277417.291699348</v>
       </c>
       <c r="E35" t="n">
-        <v>5944825.275952229</v>
+        <v>2305514.491086311</v>
       </c>
       <c r="F35" t="n">
-        <v>6132090.716281726</v>
+        <v>2440110.568417375</v>
       </c>
       <c r="G35" t="n">
-        <v>6844487.19815443</v>
+        <v>2368984.887329786</v>
       </c>
       <c r="H35" t="n">
-        <v>6503181.793898856</v>
+        <v>2361538.410383193</v>
       </c>
       <c r="I35" t="n">
-        <v>6396286.707263342</v>
+        <v>2441366.863687356</v>
       </c>
       <c r="J35" t="n">
-        <v>7696686.394815536</v>
+        <v>2689842.111062692</v>
       </c>
       <c r="K35" t="n">
-        <v>7417893.259852568</v>
+        <v>2680331.179133412</v>
       </c>
       <c r="L35" t="n">
-        <v>8105825.37649063</v>
+        <v>2446121.271203962</v>
       </c>
       <c r="M35" t="n">
-        <v>7492615.422320929</v>
+        <v>2568090.496472604</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3563544.100204659</v>
+        <v>1623198.640344377</v>
       </c>
       <c r="C36" t="n">
-        <v>2690668.43473219</v>
+        <v>1598790.05169703</v>
       </c>
       <c r="D36" t="n">
-        <v>3766568.422805355</v>
+        <v>1299547.69611055</v>
       </c>
       <c r="E36" t="n">
-        <v>2738615.577045023</v>
+        <v>1462501.666632011</v>
       </c>
       <c r="F36" t="n">
-        <v>3596429.916169619</v>
+        <v>1888689.588302981</v>
       </c>
       <c r="G36" t="n">
-        <v>4855098.211622599</v>
+        <v>1765002.188812165</v>
       </c>
       <c r="H36" t="n">
-        <v>3134662.634026966</v>
+        <v>1314303.184221181</v>
       </c>
       <c r="I36" t="n">
-        <v>4141805.35972688</v>
+        <v>1340986.177432184</v>
       </c>
       <c r="J36" t="n">
-        <v>4191726.402452647</v>
+        <v>1440086.29068396</v>
       </c>
       <c r="K36" t="n">
-        <v>3482207.536843549</v>
+        <v>1170582.688790852</v>
       </c>
       <c r="L36" t="n">
-        <v>3063699.755690325</v>
+        <v>1425445.570761364</v>
       </c>
       <c r="M36" t="n">
-        <v>4327529.475926188</v>
+        <v>1339095.438808694</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3994512.616044178</v>
+        <v>3261663.396010255</v>
       </c>
       <c r="C37" t="n">
-        <v>5607289.434135078</v>
+        <v>4856026.250605443</v>
       </c>
       <c r="D37" t="n">
-        <v>6459982.45209618</v>
+        <v>3425697.175610076</v>
       </c>
       <c r="E37" t="n">
-        <v>4145404.468707603</v>
+        <v>3312542.818676459</v>
       </c>
       <c r="F37" t="n">
-        <v>3741861.262268102</v>
+        <v>4996622.426296005</v>
       </c>
       <c r="G37" t="n">
-        <v>6626926.896965433</v>
+        <v>5173407.861006793</v>
       </c>
       <c r="H37" t="n">
-        <v>5778178.07517898</v>
+        <v>4871364.137005592</v>
       </c>
       <c r="I37" t="n">
-        <v>6876683.942780562</v>
+        <v>4270755.105885647</v>
       </c>
       <c r="J37" t="n">
-        <v>5011475.099687778</v>
+        <v>4945328.357887831</v>
       </c>
       <c r="K37" t="n">
-        <v>7183044.631738168</v>
+        <v>4660192.600788538</v>
       </c>
       <c r="L37" t="n">
-        <v>5657659.046372857</v>
+        <v>4305721.172197249</v>
       </c>
       <c r="M37" t="n">
-        <v>8022981.533316155</v>
+        <v>3758545.626977542</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2988083.490461258</v>
+        <v>4355534.822873263</v>
       </c>
       <c r="C38" t="n">
-        <v>3063686.608481204</v>
+        <v>4052823.427878623</v>
       </c>
       <c r="D38" t="n">
-        <v>2672341.820504378</v>
+        <v>4129089.678835066</v>
       </c>
       <c r="E38" t="n">
-        <v>2869790.127526062</v>
+        <v>4598717.629500245</v>
       </c>
       <c r="F38" t="n">
-        <v>3019154.616463586</v>
+        <v>4802252.527386728</v>
       </c>
       <c r="G38" t="n">
-        <v>4251817.709694429</v>
+        <v>4911086.822751608</v>
       </c>
       <c r="H38" t="n">
-        <v>2994228.824774353</v>
+        <v>4831182.829453625</v>
       </c>
       <c r="I38" t="n">
-        <v>2105909.469312339</v>
+        <v>5222712.702788675</v>
       </c>
       <c r="J38" t="n">
-        <v>2927772.094315615</v>
+        <v>5014590.511189564</v>
       </c>
       <c r="K38" t="n">
-        <v>3376169.095601534</v>
+        <v>4992697.039759506</v>
       </c>
       <c r="L38" t="n">
-        <v>3870505.986196318</v>
+        <v>5318404.485682501</v>
       </c>
       <c r="M38" t="n">
-        <v>3120216.288818025</v>
+        <v>4766425.591268546</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2904088.51738589</v>
+        <v>3424123.223719195</v>
       </c>
       <c r="C39" t="n">
-        <v>2410992.291376278</v>
+        <v>4239439.640180057</v>
       </c>
       <c r="D39" t="n">
-        <v>3141300.012921644</v>
+        <v>5013175.607737473</v>
       </c>
       <c r="E39" t="n">
-        <v>2952823.212416259</v>
+        <v>5750177.994971066</v>
       </c>
       <c r="F39" t="n">
-        <v>4029806.77426162</v>
+        <v>6404975.112191559</v>
       </c>
       <c r="G39" t="n">
-        <v>3538329.384907576</v>
+        <v>6240717.345724347</v>
       </c>
       <c r="H39" t="n">
-        <v>2420928.01163976</v>
+        <v>5698448.201244857</v>
       </c>
       <c r="I39" t="n">
-        <v>2807458.166558524</v>
+        <v>6072121.938469474</v>
       </c>
       <c r="J39" t="n">
-        <v>2838781.029267707</v>
+        <v>6309837.651402575</v>
       </c>
       <c r="K39" t="n">
-        <v>4722309.153189123</v>
+        <v>5656457.157258667</v>
       </c>
       <c r="L39" t="n">
-        <v>3358950.787014688</v>
+        <v>5375054.725561047</v>
       </c>
       <c r="M39" t="n">
-        <v>3751271.252713647</v>
+        <v>5318984.928586467</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>11706210.31081075</v>
+        <v>4469526.43705758</v>
       </c>
       <c r="C40" t="n">
-        <v>13552890.88682302</v>
+        <v>4842962.452675254</v>
       </c>
       <c r="D40" t="n">
-        <v>13269170.84902172</v>
+        <v>5719457.341642027</v>
       </c>
       <c r="E40" t="n">
-        <v>13825434.54096579</v>
+        <v>5400886.238502481</v>
       </c>
       <c r="F40" t="n">
-        <v>12346731.05076585</v>
+        <v>5752856.871664477</v>
       </c>
       <c r="G40" t="n">
-        <v>13167936.17455062</v>
+        <v>5473988.369872661</v>
       </c>
       <c r="H40" t="n">
-        <v>13592222.41332334</v>
+        <v>6035566.682434274</v>
       </c>
       <c r="I40" t="n">
-        <v>13206526.15576043</v>
+        <v>5494980.12887055</v>
       </c>
       <c r="J40" t="n">
-        <v>13579386.7662134</v>
+        <v>5950700.61467878</v>
       </c>
       <c r="K40" t="n">
-        <v>16825254.51519854</v>
+        <v>5419700.543127444</v>
       </c>
       <c r="L40" t="n">
-        <v>15191079.8658892</v>
+        <v>5927826.999998719</v>
       </c>
       <c r="M40" t="n">
-        <v>16729237.4421542</v>
+        <v>5289219.144898162</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2824970.239750197</v>
+        <v>2409419.928813273</v>
       </c>
       <c r="C41" t="n">
-        <v>1543061.131013935</v>
+        <v>3063902.029973014</v>
       </c>
       <c r="D41" t="n">
-        <v>4325258.570114677</v>
+        <v>2874501.953227736</v>
       </c>
       <c r="E41" t="n">
-        <v>4380996.318753439</v>
+        <v>2973176.279867784</v>
       </c>
       <c r="F41" t="n">
-        <v>2513511.636807072</v>
+        <v>3357302.833246234</v>
       </c>
       <c r="G41" t="n">
-        <v>4882263.934682637</v>
+        <v>3541003.396733216</v>
       </c>
       <c r="H41" t="n">
-        <v>4540181.417286769</v>
+        <v>3417607.181747349</v>
       </c>
       <c r="I41" t="n">
-        <v>17122357.37587</v>
+        <v>3437492.652957386</v>
       </c>
       <c r="J41" t="n">
-        <v>10597287.61734116</v>
+        <v>3794828.920294645</v>
       </c>
       <c r="K41" t="n">
-        <v>3389276.700218003</v>
+        <v>3223758.928804437</v>
       </c>
       <c r="L41" t="n">
-        <v>3363330.088763534</v>
+        <v>3668406.830241821</v>
       </c>
       <c r="M41" t="n">
-        <v>5851346.130678334</v>
+        <v>3164146.729846796</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7780563.138747567</v>
+        <v>3564404.367543336</v>
       </c>
       <c r="C42" t="n">
-        <v>11190943.1265028</v>
+        <v>4146328.622746157</v>
       </c>
       <c r="D42" t="n">
-        <v>11668596.93083689</v>
+        <v>3868065.76454579</v>
       </c>
       <c r="E42" t="n">
-        <v>11892433.31341659</v>
+        <v>3807011.56667966</v>
       </c>
       <c r="F42" t="n">
-        <v>9809850.679886639</v>
+        <v>4191227.101844305</v>
       </c>
       <c r="G42" t="n">
-        <v>10590491.5446398</v>
+        <v>4824750.170286627</v>
       </c>
       <c r="H42" t="n">
-        <v>10323843.62971798</v>
+        <v>4554149.366713497</v>
       </c>
       <c r="I42" t="n">
-        <v>9996503.007969294</v>
+        <v>4868421.90421146</v>
       </c>
       <c r="J42" t="n">
-        <v>12780775.1076422</v>
+        <v>5071306.729243501</v>
       </c>
       <c r="K42" t="n">
-        <v>12016007.88001182</v>
+        <v>4617253.880198494</v>
       </c>
       <c r="L42" t="n">
-        <v>10538315.45512315</v>
+        <v>4527102.47657807</v>
       </c>
       <c r="M42" t="n">
-        <v>15592659.8174419</v>
+        <v>3537731.439398909</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3493242.393343483</v>
+        <v>1933445.269534693</v>
       </c>
       <c r="C43" t="n">
-        <v>4702946.66245451</v>
+        <v>3216487.400879127</v>
       </c>
       <c r="D43" t="n">
-        <v>6525206.312114967</v>
+        <v>2421240.421581428</v>
       </c>
       <c r="E43" t="n">
-        <v>4942441.581144289</v>
+        <v>2815877.926069609</v>
       </c>
       <c r="F43" t="n">
-        <v>3625872.564636491</v>
+        <v>3273701.072237689</v>
       </c>
       <c r="G43" t="n">
-        <v>4435840.457590006</v>
+        <v>3199840.119066873</v>
       </c>
       <c r="H43" t="n">
-        <v>5952141.726813734</v>
+        <v>3149408.843902139</v>
       </c>
       <c r="I43" t="n">
-        <v>4198262.251123508</v>
+        <v>3378145.954367534</v>
       </c>
       <c r="J43" t="n">
-        <v>7352266.424218358</v>
+        <v>2860202.169896719</v>
       </c>
       <c r="K43" t="n">
-        <v>6359633.975698974</v>
+        <v>3247727.600072786</v>
       </c>
       <c r="L43" t="n">
-        <v>5185204.587027843</v>
+        <v>3212316.055345789</v>
       </c>
       <c r="M43" t="n">
-        <v>5901715.191455369</v>
+        <v>2600371.61230381</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>10280059.12077127</v>
+        <v>4201061.77988022</v>
       </c>
       <c r="C44" t="n">
-        <v>11524309.26096832</v>
+        <v>5203366.3387301</v>
       </c>
       <c r="D44" t="n">
-        <v>13297206.69110836</v>
+        <v>4831800.547961956</v>
       </c>
       <c r="E44" t="n">
-        <v>11120096.70772231</v>
+        <v>4735358.732768772</v>
       </c>
       <c r="F44" t="n">
-        <v>10726442.03473178</v>
+        <v>5811344.438603145</v>
       </c>
       <c r="G44" t="n">
-        <v>11807689.01046702</v>
+        <v>6538402.773484654</v>
       </c>
       <c r="H44" t="n">
-        <v>13047324.06041666</v>
+        <v>5217470.836519027</v>
       </c>
       <c r="I44" t="n">
-        <v>14806098.26605592</v>
+        <v>6687011.17997449</v>
       </c>
       <c r="J44" t="n">
-        <v>13625555.61983455</v>
+        <v>6131474.978742162</v>
       </c>
       <c r="K44" t="n">
-        <v>13249231.26620942</v>
+        <v>5412020.708863725</v>
       </c>
       <c r="L44" t="n">
-        <v>11394540.25003319</v>
+        <v>6581965.856618226</v>
       </c>
       <c r="M44" t="n">
-        <v>15655792.36336975</v>
+        <v>4963593.1342831</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5386540.309128283</v>
+        <v>2714590.503355385</v>
       </c>
       <c r="C45" t="n">
-        <v>5419604.876536754</v>
+        <v>3191605.292259165</v>
       </c>
       <c r="D45" t="n">
-        <v>6050368.357785141</v>
+        <v>2888220.505929306</v>
       </c>
       <c r="E45" t="n">
-        <v>5603551.736035037</v>
+        <v>2520967.978524859</v>
       </c>
       <c r="F45" t="n">
-        <v>4043000.789362275</v>
+        <v>3150620.69487737</v>
       </c>
       <c r="G45" t="n">
-        <v>4790103.875481742</v>
+        <v>3370280.983331017</v>
       </c>
       <c r="H45" t="n">
-        <v>6407267.893346797</v>
+        <v>3056231.352510145</v>
       </c>
       <c r="I45" t="n">
-        <v>5565589.726577512</v>
+        <v>3700062.690275561</v>
       </c>
       <c r="J45" t="n">
-        <v>4849992.552346993</v>
+        <v>2960732.920785163</v>
       </c>
       <c r="K45" t="n">
-        <v>5962308.178130727</v>
+        <v>2933852.850516249</v>
       </c>
       <c r="L45" t="n">
-        <v>5062004.911185037</v>
+        <v>3114924.321247451</v>
       </c>
       <c r="M45" t="n">
-        <v>6615646.361388952</v>
+        <v>2994355.04385386</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>12290449.43062089</v>
+        <v>2040869.119624927</v>
       </c>
       <c r="C46" t="n">
-        <v>14349600.64367091</v>
+        <v>2180865.876021899</v>
       </c>
       <c r="D46" t="n">
-        <v>11851657.94832803</v>
+        <v>1994617.636751184</v>
       </c>
       <c r="E46" t="n">
-        <v>14548583.30247194</v>
+        <v>2527712.320009194</v>
       </c>
       <c r="F46" t="n">
-        <v>11552528.27894615</v>
+        <v>2235796.961184186</v>
       </c>
       <c r="G46" t="n">
-        <v>14341290.21211055</v>
+        <v>2362729.751231841</v>
       </c>
       <c r="H46" t="n">
-        <v>19167888.38079217</v>
+        <v>2463051.788315603</v>
       </c>
       <c r="I46" t="n">
-        <v>13427742.96984297</v>
+        <v>2263916.343246534</v>
       </c>
       <c r="J46" t="n">
-        <v>11378348.92547699</v>
+        <v>2560880.632101432</v>
       </c>
       <c r="K46" t="n">
-        <v>10734370.03524093</v>
+        <v>1905149.45337552</v>
       </c>
       <c r="L46" t="n">
-        <v>14784918.5284702</v>
+        <v>2384561.777451335</v>
       </c>
       <c r="M46" t="n">
-        <v>20141769.79696897</v>
+        <v>2178538.761254366</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2555570.761203445</v>
+        <v>2558891.490005168</v>
       </c>
       <c r="C47" t="n">
-        <v>2481258.154971201</v>
+        <v>2630524.605843933</v>
       </c>
       <c r="D47" t="n">
-        <v>2786576.024551897</v>
+        <v>2579342.570886857</v>
       </c>
       <c r="E47" t="n">
-        <v>2715608.137412522</v>
+        <v>2615879.880035232</v>
       </c>
       <c r="F47" t="n">
-        <v>2644130.326207149</v>
+        <v>2640866.007295959</v>
       </c>
       <c r="G47" t="n">
-        <v>2650720.24510639</v>
+        <v>2661366.774501573</v>
       </c>
       <c r="H47" t="n">
-        <v>2585052.201620764</v>
+        <v>2667994.133939645</v>
       </c>
       <c r="I47" t="n">
-        <v>2779045.017239907</v>
+        <v>2667675.728349443</v>
       </c>
       <c r="J47" t="n">
-        <v>2792095.042163924</v>
+        <v>2691586.617833866</v>
       </c>
       <c r="K47" t="n">
-        <v>2739507.815173362</v>
+        <v>2730876.917618091</v>
       </c>
       <c r="L47" t="n">
-        <v>2813187.67656339</v>
+        <v>2769407.426777225</v>
       </c>
       <c r="M47" t="n">
-        <v>2979707.953184894</v>
+        <v>2912285.476151838</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>919807.4456021677</v>
+        <v>4911726.74337853</v>
       </c>
       <c r="C48" t="n">
-        <v>868470.1819911742</v>
+        <v>5183607.932493826</v>
       </c>
       <c r="D48" t="n">
-        <v>855082.6350119313</v>
+        <v>4846070.61898865</v>
       </c>
       <c r="E48" t="n">
-        <v>923478.4113319064</v>
+        <v>5749108.872760288</v>
       </c>
       <c r="F48" t="n">
-        <v>880691.4579978794</v>
+        <v>5827209.620821548</v>
       </c>
       <c r="G48" t="n">
-        <v>842668.2595953516</v>
+        <v>5364137.054427486</v>
       </c>
       <c r="H48" t="n">
-        <v>833857.932052178</v>
+        <v>5641744.869809578</v>
       </c>
       <c r="I48" t="n">
-        <v>854914.4589543826</v>
+        <v>5886615.163089965</v>
       </c>
       <c r="J48" t="n">
-        <v>867129.274389045</v>
+        <v>5774540.021374681</v>
       </c>
       <c r="K48" t="n">
-        <v>935608.5869441017</v>
+        <v>6068852.637158957</v>
       </c>
       <c r="L48" t="n">
-        <v>959282.478246844</v>
+        <v>6155266.214297234</v>
       </c>
       <c r="M48" t="n">
-        <v>1152145.694095357</v>
+        <v>5731707.185289284</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>580759.9820075403</v>
+        <v>877941.9468119413</v>
       </c>
       <c r="C49" t="n">
-        <v>913410.9665729406</v>
+        <v>1000356.102961695</v>
       </c>
       <c r="D49" t="n">
-        <v>950431.7162136061</v>
+        <v>1040556.488209561</v>
       </c>
       <c r="E49" t="n">
-        <v>890759.3436055449</v>
+        <v>954893.379168314</v>
       </c>
       <c r="F49" t="n">
-        <v>814970.8103929464</v>
+        <v>884857.7263019729</v>
       </c>
       <c r="G49" t="n">
-        <v>582841.9587414635</v>
+        <v>1004530.921614503</v>
       </c>
       <c r="H49" t="n">
-        <v>703948.2175248048</v>
+        <v>1035532.287049687</v>
       </c>
       <c r="I49" t="n">
-        <v>634493.0566938112</v>
+        <v>1006752.977155641</v>
       </c>
       <c r="J49" t="n">
-        <v>791385.8096083942</v>
+        <v>919131.9348580345</v>
       </c>
       <c r="K49" t="n">
-        <v>988210.20391085</v>
+        <v>1078214.814962094</v>
       </c>
       <c r="L49" t="n">
-        <v>1099066.792097883</v>
+        <v>1013772.206378773</v>
       </c>
       <c r="M49" t="n">
-        <v>1080681.665076105</v>
+        <v>972412.1228915767</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2052509.90215714</v>
+        <v>3540210.870771185</v>
       </c>
       <c r="C50" t="n">
-        <v>2088403.049873433</v>
+        <v>3386304.550851471</v>
       </c>
       <c r="D50" t="n">
-        <v>2244285.791977827</v>
+        <v>3361328.822581284</v>
       </c>
       <c r="E50" t="n">
-        <v>2327638.881956086</v>
+        <v>3843125.669691823</v>
       </c>
       <c r="F50" t="n">
-        <v>2327255.285000906</v>
+        <v>3639313.207054683</v>
       </c>
       <c r="G50" t="n">
-        <v>2433857.387955702</v>
+        <v>3720620.713820601</v>
       </c>
       <c r="H50" t="n">
-        <v>2267681.172667655</v>
+        <v>3760368.853007297</v>
       </c>
       <c r="I50" t="n">
-        <v>2236292.087100864</v>
+        <v>3815803.151669817</v>
       </c>
       <c r="J50" t="n">
-        <v>2475632.079541829</v>
+        <v>3739684.905177409</v>
       </c>
       <c r="K50" t="n">
-        <v>2488112.422482505</v>
+        <v>3947547.272487379</v>
       </c>
       <c r="L50" t="n">
-        <v>2600602.156076122</v>
+        <v>4079623.620647637</v>
       </c>
       <c r="M50" t="n">
-        <v>2593229.925700501</v>
+        <v>3905364.348879162</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3214953.576272181</v>
+        <v>4124912.312847601</v>
       </c>
       <c r="C51" t="n">
-        <v>2865635.14468715</v>
+        <v>3964013.645709611</v>
       </c>
       <c r="D51" t="n">
-        <v>3228378.430962976</v>
+        <v>4234401.420618852</v>
       </c>
       <c r="E51" t="n">
-        <v>3016359.666365717</v>
+        <v>4309495.846109344</v>
       </c>
       <c r="F51" t="n">
-        <v>3172068.819430021</v>
+        <v>4503188.679603035</v>
       </c>
       <c r="G51" t="n">
-        <v>3500477.577850007</v>
+        <v>4603166.550066411</v>
       </c>
       <c r="H51" t="n">
-        <v>3621859.968182502</v>
+        <v>4723078.772681484</v>
       </c>
       <c r="I51" t="n">
-        <v>3677632.582799844</v>
+        <v>4711347.844541328</v>
       </c>
       <c r="J51" t="n">
-        <v>3380359.850189752</v>
+        <v>4768441.710229659</v>
       </c>
       <c r="K51" t="n">
-        <v>3788384.557585403</v>
+        <v>5029341.77610779</v>
       </c>
       <c r="L51" t="n">
-        <v>3760411.730953132</v>
+        <v>5170126.581359576</v>
       </c>
       <c r="M51" t="n">
-        <v>3659377.658512352</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2540502.915784649</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2324913.463653598</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2875086.981438913</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2682506.158336992</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2614198.494699634</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2935279.786129534</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3211258.356073361</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3990798.839377088</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2574224.41333534</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3962670.0527534</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2849908.661708017</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3317938.169154709</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>2272059.047423202</v>
-      </c>
-      <c r="C53" t="n">
-        <v>2129727.954727934</v>
-      </c>
-      <c r="D53" t="n">
-        <v>2369166.085260127</v>
-      </c>
-      <c r="E53" t="n">
-        <v>2362940.492228772</v>
-      </c>
-      <c r="F53" t="n">
-        <v>2335249.053458638</v>
-      </c>
-      <c r="G53" t="n">
-        <v>2432771.917122126</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2353052.746041193</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2366083.603176659</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2485183.093483566</v>
-      </c>
-      <c r="K53" t="n">
-        <v>2787546.744359315</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2833920.323870807</v>
-      </c>
-      <c r="M53" t="n">
-        <v>2642266.093478263</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1470051.35703438</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1629517.940268387</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1672215.219840787</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1351531.121074904</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1496069.146396836</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1909212.914920475</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1781722.42838355</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1337366.47492363</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1375630.345711631</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1492149.454028805</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1241634.90519205</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1511609.055278945</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>3513614.019124453</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3415863.774100224</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4992814.023818737</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3554814.053350422</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3427991.872980617</v>
-      </c>
-      <c r="G55" t="n">
-        <v>5097188.466227697</v>
-      </c>
-      <c r="H55" t="n">
-        <v>5268020.348885024</v>
-      </c>
-      <c r="I55" t="n">
-        <v>4969341.720814219</v>
-      </c>
-      <c r="J55" t="n">
-        <v>4371776.131503372</v>
-      </c>
-      <c r="K55" t="n">
-        <v>5056657.912407598</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4785925.744465505</v>
-      </c>
-      <c r="M55" t="n">
-        <v>4444970.497167076</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3326212.849360421</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4176768.765266983</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3986383.348121063</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4033054.072837688</v>
-      </c>
-      <c r="F56" t="n">
-        <v>4483263.685280275</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4676510.550214175</v>
-      </c>
-      <c r="H56" t="n">
-        <v>4783439.024591831</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4708238.132133491</v>
-      </c>
-      <c r="J56" t="n">
-        <v>5111038.081852032</v>
-      </c>
-      <c r="K56" t="n">
-        <v>4913822.237577782</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4901391.413796659</v>
-      </c>
-      <c r="M56" t="n">
-        <v>5227280.371182155</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>3999563.685094931</v>
-      </c>
-      <c r="C57" t="n">
-        <v>3644253.243595841</v>
-      </c>
-      <c r="D57" t="n">
-        <v>4316282.289100865</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5114514.753467377</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5864904.70233508</v>
-      </c>
-      <c r="G57" t="n">
-        <v>6524716.662928045</v>
-      </c>
-      <c r="H57" t="n">
-        <v>6357823.367899932</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5808033.366343088</v>
-      </c>
-      <c r="J57" t="n">
-        <v>6165025.606710637</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6387550.245587776</v>
-      </c>
-      <c r="L57" t="n">
-        <v>5721803.729587753</v>
-      </c>
-      <c r="M57" t="n">
-        <v>5434105.386214151</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>4481300.048141371</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4383127.401168215</v>
-      </c>
-      <c r="D58" t="n">
-        <v>4873982.958404241</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5720168.509360395</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5380213.366752883</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5717848.674207078</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5436418.010987922</v>
-      </c>
-      <c r="I58" t="n">
-        <v>6005716.459124423</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5482764.944056036</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5959859.652234633</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5451778.114001301</v>
-      </c>
-      <c r="M58" t="n">
-        <v>5976240.996526047</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2934710.054475592</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2432355.375316767</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3212914.794764737</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2981789.53290047</v>
-      </c>
-      <c r="F59" t="n">
-        <v>3044697.448047477</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3403155.115247616</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3579161.632197446</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3467919.124840921</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3509810.791516781</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3900948.011208116</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3366811.007206799</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3840936.610593108</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>3644865.019292971</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3543395.669066173</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4296593.567258733</v>
-      </c>
-      <c r="E60" t="n">
-        <v>3966775.428608564</v>
-      </c>
-      <c r="F60" t="n">
-        <v>3862869.70782607</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4217420.276331919</v>
-      </c>
-      <c r="H60" t="n">
-        <v>4842944.03311748</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4587607.549709115</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4930140.456901033</v>
-      </c>
-      <c r="K60" t="n">
-        <v>5173771.156481216</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4763436.967266642</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4707439.699629328</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2439621.067649141</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1843339.341401984</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3205195.275789062</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2393541.198638451</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2776839.634576808</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3228396.906519405</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3154452.450118216</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3109044.536574481</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3347952.555863124</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2841791.559379408</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3239775.451187167</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3211607.795841065</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>4682622.835672278</v>
-      </c>
-      <c r="C62" t="n">
-        <v>4356801.006175625</v>
-      </c>
-      <c r="D62" t="n">
-        <v>5348131.617284819</v>
-      </c>
-      <c r="E62" t="n">
-        <v>4966360.504392846</v>
-      </c>
-      <c r="F62" t="n">
-        <v>4856124.609917123</v>
-      </c>
-      <c r="G62" t="n">
-        <v>5919987.078801982</v>
-      </c>
-      <c r="H62" t="n">
-        <v>6640729.110333584</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5321910.830201374</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6795425.280730236</v>
-      </c>
-      <c r="K62" t="n">
-        <v>6251500.17296159</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5546800.670956067</v>
-      </c>
-      <c r="M62" t="n">
-        <v>6731731.738476038</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>1887663.92002838</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2738695.282519373</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3148594.691821767</v>
-      </c>
-      <c r="E63" t="n">
-        <v>2863920.829113035</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2512139.508938621</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3151623.215771557</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3373530.553514992</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3054281.222385198</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3687046.896050235</v>
-      </c>
-      <c r="K63" t="n">
-        <v>2933980.372494163</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2891841.164332542</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3060505.525849658</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>1514743.010310078</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2029732.175890492</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2213978.97323033</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2014916.712473227</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2537680.428065163</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2238910.908866879</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2364224.142043413</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2468354.77153376</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2276436.738480038</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2583267.239662773</v>
-      </c>
-      <c r="L64" t="n">
-        <v>1937921.913617378</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2425144.36610094</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2289789.760870985</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2361208.553469428</v>
-      </c>
-      <c r="D65" t="n">
-        <v>2629432.192208831</v>
-      </c>
-      <c r="E65" t="n">
-        <v>2534261.021332326</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2539706.657427642</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2546235.613944757</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2564937.29852342</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2584489.250821999</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2610737.38426579</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2666030.042192045</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2735279.256103013</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2794708.593664685</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>5357703.792468787</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5150371.882116087</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5610137.719715022</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5285975.79676026</v>
-      </c>
-      <c r="F66" t="n">
-        <v>6174997.797017425</v>
-      </c>
-      <c r="G66" t="n">
-        <v>6242441.743307362</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5784026.495937431</v>
-      </c>
-      <c r="I66" t="n">
-        <v>6079172.906338784</v>
-      </c>
-      <c r="J66" t="n">
-        <v>6357445.3253468</v>
-      </c>
-      <c r="K66" t="n">
-        <v>6305102.480571059</v>
-      </c>
-      <c r="L66" t="n">
-        <v>6667362.647147655</v>
-      </c>
-      <c r="M66" t="n">
-        <v>6838535.523292745</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>700251.1839787194</v>
-      </c>
-      <c r="C67" t="n">
-        <v>816000.7177276838</v>
-      </c>
-      <c r="D67" t="n">
-        <v>983112.7041399446</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1014795.969700548</v>
-      </c>
-      <c r="F67" t="n">
-        <v>924093.2738319759</v>
-      </c>
-      <c r="G67" t="n">
-        <v>851762.3529281976</v>
-      </c>
-      <c r="H67" t="n">
-        <v>971965.1359544705</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1005568.864971798</v>
-      </c>
-      <c r="J67" t="n">
-        <v>982238.2548503964</v>
-      </c>
-      <c r="K67" t="n">
-        <v>900059.7842617934</v>
-      </c>
-      <c r="L67" t="n">
-        <v>1063783.902802411</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1001886.856888139</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>3241672.033061762</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3404848.742667957</v>
-      </c>
-      <c r="D68" t="n">
-        <v>3465189.48071086</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3406503.833978783</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3862373.649324503</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3642297.370097087</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3727711.392392215</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3788659.876263446</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3870475.893847144</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3830045.888390576</v>
-      </c>
-      <c r="L68" t="n">
-        <v>4077461.342344922</v>
-      </c>
-      <c r="M68" t="n">
-        <v>4243524.346083211</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>3785579.348605532</v>
-      </c>
-      <c r="C69" t="n">
-        <v>4033935.261614792</v>
-      </c>
-      <c r="D69" t="n">
-        <v>4065116.577703486</v>
-      </c>
-      <c r="E69" t="n">
-        <v>4304806.018117832</v>
-      </c>
-      <c r="F69" t="n">
-        <v>4356311.569173346</v>
-      </c>
-      <c r="G69" t="n">
-        <v>4534737.361469639</v>
-      </c>
-      <c r="H69" t="n">
-        <v>4633703.400411115</v>
-      </c>
-      <c r="I69" t="n">
-        <v>4768436.612392249</v>
-      </c>
-      <c r="J69" t="n">
-        <v>4784227.102653597</v>
-      </c>
-      <c r="K69" t="n">
-        <v>4877613.09452207</v>
-      </c>
-      <c r="L69" t="n">
-        <v>5178587.448584139</v>
-      </c>
-      <c r="M69" t="n">
-        <v>5354129.970433066</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>8992664.608774506</v>
-      </c>
-      <c r="C70" t="n">
-        <v>13022057.37439396</v>
-      </c>
-      <c r="D70" t="n">
-        <v>13836719.40772054</v>
-      </c>
-      <c r="E70" t="n">
-        <v>12074492.16643759</v>
-      </c>
-      <c r="F70" t="n">
-        <v>11606726.72518924</v>
-      </c>
-      <c r="G70" t="n">
-        <v>12630100.35951947</v>
-      </c>
-      <c r="H70" t="n">
-        <v>14684573.89067739</v>
-      </c>
-      <c r="I70" t="n">
-        <v>16112245.10575702</v>
-      </c>
-      <c r="J70" t="n">
-        <v>19791314.40733156</v>
-      </c>
-      <c r="K70" t="n">
-        <v>20346766.27669948</v>
-      </c>
-      <c r="L70" t="n">
-        <v>21634288.97563972</v>
-      </c>
-      <c r="M70" t="n">
-        <v>17671920.59438021</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>18835413.63889843</v>
-      </c>
-      <c r="C71" t="n">
-        <v>28304069.56325439</v>
-      </c>
-      <c r="D71" t="n">
-        <v>34067102.05113188</v>
-      </c>
-      <c r="E71" t="n">
-        <v>30455359.54232209</v>
-      </c>
-      <c r="F71" t="n">
-        <v>29725816.3723493</v>
-      </c>
-      <c r="G71" t="n">
-        <v>31503227.1872661</v>
-      </c>
-      <c r="H71" t="n">
-        <v>34143989.37974944</v>
-      </c>
-      <c r="I71" t="n">
-        <v>35827568.11481307</v>
-      </c>
-      <c r="J71" t="n">
-        <v>38318074.9645886</v>
-      </c>
-      <c r="K71" t="n">
-        <v>38506165.17479409</v>
-      </c>
-      <c r="L71" t="n">
-        <v>40726572.31192607</v>
-      </c>
-      <c r="M71" t="n">
-        <v>45556943.34740671</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>2134092.339479179</v>
-      </c>
-      <c r="C72" t="n">
-        <v>3171626.647194088</v>
-      </c>
-      <c r="D72" t="n">
-        <v>4623676.207214661</v>
-      </c>
-      <c r="E72" t="n">
-        <v>4467782.291768761</v>
-      </c>
-      <c r="F72" t="n">
-        <v>2743888.649480188</v>
-      </c>
-      <c r="G72" t="n">
-        <v>3667255.711372134</v>
-      </c>
-      <c r="H72" t="n">
-        <v>3693960.448840895</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2732999.990933298</v>
-      </c>
-      <c r="J72" t="n">
-        <v>3995294.925294765</v>
-      </c>
-      <c r="K72" t="n">
-        <v>1650738.197450528</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3138562.250219653</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1860845.636554514</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>7001402.890999511</v>
-      </c>
-      <c r="C73" t="n">
-        <v>7907553.771614191</v>
-      </c>
-      <c r="D73" t="n">
-        <v>10811990.64188577</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9649596.087142246</v>
-      </c>
-      <c r="F73" t="n">
-        <v>7826653.235105262</v>
-      </c>
-      <c r="G73" t="n">
-        <v>8826655.107876856</v>
-      </c>
-      <c r="H73" t="n">
-        <v>8793258.084760511</v>
-      </c>
-      <c r="I73" t="n">
-        <v>9268060.873833748</v>
-      </c>
-      <c r="J73" t="n">
-        <v>9224735.329639519</v>
-      </c>
-      <c r="K73" t="n">
-        <v>10261351.70225532</v>
-      </c>
-      <c r="L73" t="n">
-        <v>9315398.62690636</v>
-      </c>
-      <c r="M73" t="n">
-        <v>8470988.766066197</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>12772046.74620656</v>
-      </c>
-      <c r="C74" t="n">
-        <v>19456357.6304381</v>
-      </c>
-      <c r="D74" t="n">
-        <v>20655794.58467444</v>
-      </c>
-      <c r="E74" t="n">
-        <v>20203817.75830867</v>
-      </c>
-      <c r="F74" t="n">
-        <v>18085904.52687352</v>
-      </c>
-      <c r="G74" t="n">
-        <v>20664900.43100175</v>
-      </c>
-      <c r="H74" t="n">
-        <v>19814184.39827077</v>
-      </c>
-      <c r="I74" t="n">
-        <v>15678538.76759669</v>
-      </c>
-      <c r="J74" t="n">
-        <v>19499001.86323176</v>
-      </c>
-      <c r="K74" t="n">
-        <v>17843322.70252577</v>
-      </c>
-      <c r="L74" t="n">
-        <v>20469596.8438833</v>
-      </c>
-      <c r="M74" t="n">
-        <v>26101470.36241004</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>23196040.9130331</v>
-      </c>
-      <c r="C75" t="n">
-        <v>24149302.76759195</v>
-      </c>
-      <c r="D75" t="n">
-        <v>27088254.4749927</v>
-      </c>
-      <c r="E75" t="n">
-        <v>30582051.87359691</v>
-      </c>
-      <c r="F75" t="n">
-        <v>30478919.41967824</v>
-      </c>
-      <c r="G75" t="n">
-        <v>35166118.44527242</v>
-      </c>
-      <c r="H75" t="n">
-        <v>31476548.50710067</v>
-      </c>
-      <c r="I75" t="n">
-        <v>32953621.43585607</v>
-      </c>
-      <c r="J75" t="n">
-        <v>33816203.56025851</v>
-      </c>
-      <c r="K75" t="n">
-        <v>32106917.79626893</v>
-      </c>
-      <c r="L75" t="n">
-        <v>32235012.14049222</v>
-      </c>
-      <c r="M75" t="n">
-        <v>39550441.59012678</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>11820266.48936513</v>
-      </c>
-      <c r="C76" t="n">
-        <v>13122791.05838577</v>
-      </c>
-      <c r="D76" t="n">
-        <v>15244935.05754853</v>
-      </c>
-      <c r="E76" t="n">
-        <v>14436326.83834113</v>
-      </c>
-      <c r="F76" t="n">
-        <v>14071248.11243032</v>
-      </c>
-      <c r="G76" t="n">
-        <v>15227846.2404471</v>
-      </c>
-      <c r="H76" t="n">
-        <v>14371562.88812202</v>
-      </c>
-      <c r="I76" t="n">
-        <v>15597363.61103122</v>
-      </c>
-      <c r="J76" t="n">
-        <v>17282934.80791517</v>
-      </c>
-      <c r="K76" t="n">
-        <v>17369781.16160467</v>
-      </c>
-      <c r="L76" t="n">
-        <v>16281183.27542352</v>
-      </c>
-      <c r="M76" t="n">
-        <v>15278662.40329425</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>17762048.33834284</v>
-      </c>
-      <c r="C77" t="n">
-        <v>19489511.35952146</v>
-      </c>
-      <c r="D77" t="n">
-        <v>20273555.11489252</v>
-      </c>
-      <c r="E77" t="n">
-        <v>20710162.66531004</v>
-      </c>
-      <c r="F77" t="n">
-        <v>21662564.57446989</v>
-      </c>
-      <c r="G77" t="n">
-        <v>21645404.52644394</v>
-      </c>
-      <c r="H77" t="n">
-        <v>23080151.00570587</v>
-      </c>
-      <c r="I77" t="n">
-        <v>24471138.89575038</v>
-      </c>
-      <c r="J77" t="n">
-        <v>26076018.87488201</v>
-      </c>
-      <c r="K77" t="n">
-        <v>26697681.62687137</v>
-      </c>
-      <c r="L77" t="n">
-        <v>27725645.14529354</v>
-      </c>
-      <c r="M77" t="n">
-        <v>27335268.06544052</v>
+        <v>5097836.075813557</v>
       </c>
     </row>
   </sheetData>
